--- a/data_final_mafer.xlsx
+++ b/data_final_mafer.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mariafe\Documents\PUCP\PUCP 2019-2\ESTADÍSTICA 2\DATAS PROYECTO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{777F4134-4351-4775-B115-F0FE5F54F2F2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0E38468-2BA3-4F49-85AC-05462CB467EE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10380" xr2:uid="{721B37BD-6589-4ADB-90DF-84601905AC46}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="43">
   <si>
     <t>Junín</t>
   </si>
@@ -160,7 +160,7 @@
     <t>Esperanza_H</t>
   </si>
   <si>
-    <t xml:space="preserve">PROVINCIA </t>
+    <t>DEPARTAMENTO</t>
   </si>
 </sst>
 </file>
@@ -576,9 +576,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49EE5212-79B7-4F57-A71D-5EFE0989E8C1}">
   <dimension ref="A1:E196"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="84" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="84" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>

--- a/data_final_mafer.xlsx
+++ b/data_final_mafer.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mariafe\Documents\PUCP\PUCP 2019-2\ESTADÍSTICA 2\DATAS PROYECTO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0E38468-2BA3-4F49-85AC-05462CB467EE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15EBD4D6-58F2-4FCC-B5C8-7B3EB8299569}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10380" xr2:uid="{721B37BD-6589-4ADB-90DF-84601905AC46}"/>
+    <workbookView xWindow="515" yWindow="0" windowWidth="10710" windowHeight="10200" xr2:uid="{721B37BD-6589-4ADB-90DF-84601905AC46}"/>
   </bookViews>
   <sheets>
     <sheet name="data_internet" sheetId="1" r:id="rId1"/>
@@ -160,7 +160,7 @@
     <t>Esperanza_H</t>
   </si>
   <si>
-    <t>DEPARTAMENTO</t>
+    <t>Departamento</t>
   </si>
 </sst>
 </file>
@@ -576,7 +576,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49EE5212-79B7-4F57-A71D-5EFE0989E8C1}">
   <dimension ref="A1:E196"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="84" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="84" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
